--- a/Chapter_04/Chapter_4_Table_S4.14.xlsx
+++ b/Chapter_04/Chapter_4_Table_S4.14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtuser\OneDrive - National University of Ireland, Galway\Desktop\Dropbox\@John O'Grady\@Thesis\Supplementary\Chapter_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9124B300-AC59-4556-9CFF-96600E440F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B909568F-E8E8-4BE0-AF73-1B8BE87B5418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-1830" windowWidth="29040" windowHeight="15720" xr2:uid="{B8CCE5C9-D75C-4688-866E-C4A77954258B}"/>
+    <workbookView xWindow="20370" yWindow="-1815" windowWidth="29040" windowHeight="15720" xr2:uid="{BABBD080-C8B8-44BC-8322-442932D0BFE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter_4_Table_S4.14" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>− cattle, respectively based on the three gene sets identified using the greedy-forward search algorithm</t>
+      <t>− cattle, respectively, based on the three gene sets identified using the greedy-forward search algorithm</t>
     </r>
   </si>
   <si>
@@ -107,10 +107,10 @@
     <t>P.adj.</t>
   </si>
   <si>
-    <t>Mcloughlin et al., (2014)</t>
-  </si>
-  <si>
-    <t>Pass 1</t>
+    <t>MCL14-BTB</t>
+  </si>
+  <si>
+    <t>13-gene set</t>
   </si>
   <si>
     <t>Control</t>
@@ -119,19 +119,19 @@
     <t>Infected</t>
   </si>
   <si>
-    <t>Pass 2</t>
-  </si>
-  <si>
-    <t>Combined</t>
-  </si>
-  <si>
-    <t>Mcloughlin et al., (2021)</t>
-  </si>
-  <si>
-    <t>Wiarda et al., (2020)</t>
-  </si>
-  <si>
-    <t>O'Grady et al., (2025)</t>
+    <t>17-gene set</t>
+  </si>
+  <si>
+    <t>30-gene set</t>
+  </si>
+  <si>
+    <t>MCL21-BTB</t>
+  </si>
+  <si>
+    <t>WIA20-BTB</t>
+  </si>
+  <si>
+    <t>OGR25-BTB</t>
   </si>
 </sst>
 </file>
@@ -227,17 +227,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC5FD43D-B0F5-4B18-A213-B8D218725D55}" name="Table14" displayName="Table14" ref="A2:H14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8BF9587-0845-48DE-A4DB-369F0400B866}" name="Table14" displayName="Table14" ref="A2:H14" totalsRowShown="0">
   <autoFilter ref="A2:H14" xr:uid="{5BECC0E4-0959-4451-BC28-499F04F74F4C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{23D97A5A-0716-4807-A207-C309FC848B2A}" name="Group"/>
-    <tableColumn id="2" xr3:uid="{B31E103C-45B4-4B1A-BCE9-657968D0A861}" name="Gene set"/>
-    <tableColumn id="3" xr3:uid="{9A81F87D-4E43-4A5B-91FD-8CAF9C486A11}" name="Group 1"/>
-    <tableColumn id="4" xr3:uid="{0C613ECB-29FA-4335-B226-B804473CDA0C}" name="Group 2"/>
-    <tableColumn id="5" xr3:uid="{68729470-FFE2-4B9D-9F9C-16BD59FA3C40}" name="n1"/>
-    <tableColumn id="6" xr3:uid="{078FE030-FA31-4898-9E33-7E079176D93A}" name="n2"/>
-    <tableColumn id="7" xr3:uid="{1D673DC1-74D7-40CE-B0EB-4B6004DFD1AC}" name="P" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{4E7A8261-768A-45CA-8B9E-663AB7429C6B}" name="P.adj." dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B6179359-AD65-46AB-9DB4-82F1F8CE5D7E}" name="Group"/>
+    <tableColumn id="2" xr3:uid="{A1AF9CA4-5FC6-494B-9257-2E4AF241E826}" name="Gene set"/>
+    <tableColumn id="3" xr3:uid="{14E58D80-42DB-41C0-9F8C-BC8089AA2CC3}" name="Group 1"/>
+    <tableColumn id="4" xr3:uid="{949696A3-881B-4703-BFBD-E8BA5DB3D1B0}" name="Group 2"/>
+    <tableColumn id="5" xr3:uid="{5F5FD267-7EE9-4D3C-80A0-0F6758349520}" name="n1"/>
+    <tableColumn id="6" xr3:uid="{873E4A24-1A2F-4481-9C4C-FAC22B33E5F1}" name="n2"/>
+    <tableColumn id="7" xr3:uid="{CFA88756-E351-49FB-809F-9E8CDED7ED8B}" name="P" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{43A5AFFE-700D-4C75-9FE9-60DA4AC70925}" name="P.adj." dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB8DF45-B980-461F-B739-AF63BD988E84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A49D6D-C6E2-4FD7-8B1B-1972F601A60A}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -592,7 +592,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -637,14 +637,14 @@
       <c r="F3">
         <v>6</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>4.3299999999999996E-3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>4.3299999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -663,14 +663,14 @@
       <c r="F4">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>4.3299999999999996E-3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>4.3299999999999996E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -689,14 +689,14 @@
       <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>4.3299999999999996E-3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>4.3299999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -719,10 +719,10 @@
         <v>1.4899999999999999E-6</v>
       </c>
       <c r="H6" s="2">
-        <v>1.99E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.55428571428571E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -742,13 +742,13 @@
         <v>28</v>
       </c>
       <c r="G7" s="2">
-        <v>1.4899999999999999E-6</v>
+        <v>2.9699999999999999E-6</v>
       </c>
       <c r="H7" s="2">
-        <v>1.99E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.4549999999999997E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -768,13 +768,13 @@
         <v>28</v>
       </c>
       <c r="G8" s="2">
-        <v>1.4899999999999999E-6</v>
+        <v>5.9499999999999998E-6</v>
       </c>
       <c r="H8" s="2">
-        <v>1.99E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.9333333333333308E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -797,10 +797,10 @@
         <v>1.2E-8</v>
       </c>
       <c r="H9" s="2">
-        <v>2.4E-8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.88E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -820,13 +820,13 @@
         <v>16</v>
       </c>
       <c r="G10" s="2">
-        <v>1.7100000000000001E-9</v>
+        <v>1.2E-8</v>
       </c>
       <c r="H10" s="2">
-        <v>4.1000000000000003E-9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.88E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -846,13 +846,13 @@
         <v>16</v>
       </c>
       <c r="G11" s="2">
-        <v>1.7100000000000001E-9</v>
+        <v>3.2600000000000001E-8</v>
       </c>
       <c r="H11" s="2">
-        <v>4.1000000000000003E-9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.5200000000000001E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -872,13 +872,13 @@
         <v>43</v>
       </c>
       <c r="G12" s="2">
-        <v>2.1699999999999998E-19</v>
+        <v>3.8200000000000002E-19</v>
       </c>
       <c r="H12" s="2">
-        <v>8.6799999999999993E-19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.5280000000000001E-18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -898,13 +898,13 @@
         <v>43</v>
       </c>
       <c r="G13" s="2">
-        <v>3.31E-21</v>
+        <v>2.3800000000000002E-22</v>
       </c>
       <c r="H13" s="2">
-        <v>3.3E-20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.4279999999999999E-21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -924,10 +924,10 @@
         <v>43</v>
       </c>
       <c r="G14" s="2">
-        <v>5.4999999999999998E-21</v>
+        <v>2.3800000000000002E-22</v>
       </c>
       <c r="H14" s="2">
-        <v>3.3E-20</v>
+        <v>1.4279999999999999E-21</v>
       </c>
     </row>
   </sheetData>
